--- a/data/trans_dic/P5_3-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P5_3-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que disfruta de azotea en su vivienda</t>
+          <t>Población que disfruta de azotea en su vivienda (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>36,89%</t>
+          <t>34,54%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>36,33%</t>
+          <t>34,88%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>35,93%</t>
+          <t>40,58%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>35,3%</t>
+          <t>37,58%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>36,36%</t>
+          <t>38,03%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>35,79%</t>
+          <t>36,38%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>24,7; 49,6</t>
+          <t>18,26; 54,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>23,96; 49,36</t>
+          <t>19,02; 54,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>25,76; 48,96</t>
+          <t>26,26; 56,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>24,68; 47,98</t>
+          <t>23,73; 53,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>28,15; 45,11</t>
+          <t>26,77; 48,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>27,53; 44,36</t>
+          <t>25,67; 47,52</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>9,47%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,4%</t>
+          <t>10,77%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>17,47%</t>
+          <t>16,07%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18,35%</t>
+          <t>16,38%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>13,1%</t>
+          <t>12,72%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>14,09%</t>
+          <t>13,55%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,36; 16,47</t>
+          <t>3,11; 21,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,18; 18,04</t>
+          <t>4,04; 24,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,57; 26,45</t>
+          <t>7,8; 28,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,98; 27,92</t>
+          <t>7,76; 28,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,55; 19,02</t>
+          <t>7,41; 20,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,07; 19,92</t>
+          <t>7,61; 21,28</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>15,88%</t>
+          <t>21,28%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>21,38%</t>
+          <t>21,23%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>21,76%</t>
+          <t>23,1%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>22,96%</t>
+          <t>24,07%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>19,04%</t>
+          <t>22,38%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>22,21%</t>
+          <t>22,99%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,61; 23,56</t>
+          <t>11,79; 32,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,97; 42,64</t>
+          <t>11,76; 32,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,69; 28,15</t>
+          <t>15,84; 31,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,72; 29,77</t>
+          <t>16,34; 32,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,48; 24,29</t>
+          <t>16,71; 29,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,25; 31,64</t>
+          <t>17,12; 30,44</t>
         </is>
       </c>
     </row>
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>26,87%</t>
+          <t>24,46%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>26,97%</t>
+          <t>24,24%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>26,25%</t>
+          <t>26,68%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>26,87%</t>
+          <t>26,06%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>26,53%</t>
+          <t>25,66%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>26,92%</t>
+          <t>25,22%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>19,76; 34,6</t>
+          <t>15,36; 33,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,86; 34,86</t>
+          <t>15,35; 33,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,38; 32,38</t>
+          <t>17,88; 35,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19,86; 33,47</t>
+          <t>17,78; 35,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>21,97; 32,61</t>
+          <t>19,8; 32,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,35; 33,12</t>
+          <t>19,31; 31,86</t>
         </is>
       </c>
     </row>
@@ -921,32 +922,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>26,94%</t>
+          <t>26,04%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>26,78%</t>
+          <t>25,83%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>21,44%</t>
+          <t>28,58%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>20,87%</t>
+          <t>28,63%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>24,27%</t>
+          <t>27,12%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>23,95%</t>
+          <t>27,02%</t>
         </is>
       </c>
     </row>
@@ -959,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>19,86; 35,73</t>
+          <t>15,96; 36,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>19,38; 35,58</t>
+          <t>15,66; 36,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,34; 30,25</t>
+          <t>17,31; 41,54</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14,05; 29,75</t>
+          <t>17,59; 42,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>19,03; 30,24</t>
+          <t>19,64; 35,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>18,69; 30,02</t>
+          <t>19,48; 35,7</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1002,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>33,51%</t>
+          <t>37,52%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>33,83%</t>
+          <t>40,46%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>22,71%</t>
+          <t>23,88%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>20,97%</t>
+          <t>23,69%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>27,51%</t>
+          <t>30,12%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>26,61%</t>
+          <t>31,11%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>23,62; 44,14</t>
+          <t>22,16; 53,47</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>23,53; 43,77</t>
+          <t>24,74; 56,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,93; 33,42</t>
+          <t>12,19; 41,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,71; 31,01</t>
+          <t>12,04; 40,32</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>21,1; 34,75</t>
+          <t>20,6; 40,97</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>19,87; 33,63</t>
+          <t>20,98; 41,66</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1082,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>23,99%</t>
+          <t>24,16%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>25,06%</t>
+          <t>24,69%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>24,12%</t>
+          <t>25,92%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>24,11%</t>
+          <t>25,47%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>24,06%</t>
+          <t>25,1%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>24,56%</t>
+          <t>25,11%</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1120,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>20,62; 27,88</t>
+          <t>19,62; 29,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>21,25; 29,76</t>
+          <t>19,97; 30,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>21,11; 27,53</t>
+          <t>21,69; 30,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>21,08; 27,62</t>
+          <t>21,02; 30,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>21,56; 26,49</t>
+          <t>22,24; 28,82</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>21,9; 27,24</t>
+          <t>22,36; 28,7</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1164,4 +1172,952 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que disfruta de azotea en su vivienda (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>29743</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>37326</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>47708</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>50360</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>77452</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>87686</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>15725; 46543</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>20353; 58215</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>30872; 65974</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>31794; 71262</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>54517; 99393</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>61875; 114531</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>12953</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>18180</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>21417</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>27050</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>34369</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>45230</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>4252; 29509</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>6823; 41617</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>10404; 37790</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>12820; 47493</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>20021; 55280</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>25415; 71053</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>29736</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>34403</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>49746</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>63559</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>79482</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>97961</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>16480; 45311</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>19051; 52643</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>34113; 68443</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>43145; 86548</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>59329; 105919</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>72958; 129728</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>39991</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>45255</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>51038</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>56904</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>91030</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>102158</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>25106; 55243</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>28664; 62986</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>34201; 68135</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>38834; 76636</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>70245; 115576</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>78203; 129072</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>36167</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>40655</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>29574</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>33269</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>65741</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>73924</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>22167; 50891</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>24645; 57271</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>17910; 42982</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>20442; 48906</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>47608; 86445</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>53289; 97694</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>33860</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>44232</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>25559</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>32593</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>59418</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>76825</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>19996; 48248</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>27047; 61475</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>13042; 43981</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>16571; 55478</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>40644; 80821</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>51813; 102856</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>182450</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>220051</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>225043</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>263734</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>407493</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>483785</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>148155; 224378</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>177949; 270097</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>188315; 264234</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>217625; 310666</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>360969; 467777</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>430713; 552897</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>